--- a/vazby_znacek.xlsx
+++ b/vazby_znacek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip.vaclavik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBB4E00-8E12-4074-944B-A6CEB00F0050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0403816-5734-4866-977E-2EFF43F426A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEEF875A-C45B-474B-908C-61CEEFA8F98C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEEF875A-C45B-474B-908C-61CEEFA8F98C}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="2240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="2241">
   <si>
     <t>name</t>
   </si>
@@ -6756,6 +6756,9 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>Q  power</t>
   </si>
 </sst>
 </file>
@@ -7596,10 +7599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB66AD-1FF0-4104-BCB9-E546CFC91809}">
-  <dimension ref="A1:C748"/>
+  <dimension ref="A1:C749"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A725" workbookViewId="0">
+      <selection activeCell="C750" sqref="C750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15832,6 +15835,17 @@
         <v>2237</v>
       </c>
     </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>206</v>
+      </c>
+      <c r="B749" t="s">
+        <v>208</v>
+      </c>
+      <c r="C749" t="s">
+        <v>2240</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vazby_znacek.xlsx
+++ b/vazby_znacek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip.vaclavik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip.vaclavik\Downloads\foto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0403816-5734-4866-977E-2EFF43F426A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAD63784-E8DE-4974-90C3-1D6DDEBC1C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEEF875A-C45B-474B-908C-61CEEFA8F98C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="2241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="2240">
   <si>
     <t>name</t>
   </si>
@@ -6756,9 +6756,6 @@
   </si>
   <si>
     <t>code</t>
-  </si>
-  <si>
-    <t>Q  power</t>
   </si>
 </sst>
 </file>
@@ -7599,10 +7596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB66AD-1FF0-4104-BCB9-E546CFC91809}">
-  <dimension ref="A1:C749"/>
+  <dimension ref="A1:C748"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A725" workbookViewId="0">
-      <selection activeCell="C750" sqref="C750"/>
+      <selection activeCell="A749" sqref="A749:C749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15835,17 +15832,6 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A749" t="s">
-        <v>206</v>
-      </c>
-      <c r="B749" t="s">
-        <v>208</v>
-      </c>
-      <c r="C749" t="s">
-        <v>2240</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vazby_znacek.xlsx
+++ b/vazby_znacek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip.vaclavik\Downloads\foto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAD63784-E8DE-4974-90C3-1D6DDEBC1C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7EB4CA5-713A-4273-8FFF-E94367E92E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEEF875A-C45B-474B-908C-61CEEFA8F98C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="2240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="2244">
   <si>
     <t>name</t>
   </si>
@@ -6756,6 +6756,18 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>Q  power</t>
+  </si>
+  <si>
+    <t>Q  Power</t>
+  </si>
+  <si>
+    <t>Gliss Kur</t>
+  </si>
+  <si>
+    <t>Gliss kur</t>
   </si>
 </sst>
 </file>
@@ -7596,10 +7608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB66AD-1FF0-4104-BCB9-E546CFC91809}">
-  <dimension ref="A1:C748"/>
+  <dimension ref="A1:C752"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A725" workbookViewId="0">
-      <selection activeCell="A749" sqref="A749:C749"/>
+    <sheetView tabSelected="1" topLeftCell="A741" workbookViewId="0">
+      <selection activeCell="E749" sqref="E749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15832,6 +15844,50 @@
         <v>2237</v>
       </c>
     </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>206</v>
+      </c>
+      <c r="B749" t="s">
+        <v>208</v>
+      </c>
+      <c r="C749" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>206</v>
+      </c>
+      <c r="B750" t="s">
+        <v>208</v>
+      </c>
+      <c r="C750" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>498</v>
+      </c>
+      <c r="B751" t="s">
+        <v>500</v>
+      </c>
+      <c r="C751" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>498</v>
+      </c>
+      <c r="B752" t="s">
+        <v>500</v>
+      </c>
+      <c r="C752" t="s">
+        <v>2243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vazby_znacek.xlsx
+++ b/vazby_znacek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip.vaclavik\Downloads\foto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7EB4CA5-713A-4273-8FFF-E94367E92E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BF2A35-B358-422B-A6D3-108F7F06A80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEEF875A-C45B-474B-908C-61CEEFA8F98C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="2244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="2255">
   <si>
     <t>name</t>
   </si>
@@ -6768,6 +6768,39 @@
   </si>
   <si>
     <t>Gliss kur</t>
+  </si>
+  <si>
+    <t>Q Soft</t>
+  </si>
+  <si>
+    <t>Q soft</t>
+  </si>
+  <si>
+    <t>Q Home</t>
+  </si>
+  <si>
+    <t>Q home</t>
+  </si>
+  <si>
+    <t>Sunárek</t>
+  </si>
+  <si>
+    <t>sunárek</t>
+  </si>
+  <si>
+    <t>IDC</t>
+  </si>
+  <si>
+    <t>idc</t>
+  </si>
+  <si>
+    <t>IDC institute</t>
+  </si>
+  <si>
+    <t>idc institute</t>
+  </si>
+  <si>
+    <t>L'Oreal</t>
   </si>
 </sst>
 </file>
@@ -7608,10 +7641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB66AD-1FF0-4104-BCB9-E546CFC91809}">
-  <dimension ref="A1:C752"/>
+  <dimension ref="A1:C764"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A741" workbookViewId="0">
-      <selection activeCell="E749" sqref="E749"/>
+    <sheetView tabSelected="1" topLeftCell="A748" workbookViewId="0">
+      <selection activeCell="A764" sqref="A764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15888,6 +15921,138 @@
         <v>2243</v>
       </c>
     </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>116</v>
+      </c>
+      <c r="B753" t="s">
+        <v>118</v>
+      </c>
+      <c r="C753" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>116</v>
+      </c>
+      <c r="B754" t="s">
+        <v>118</v>
+      </c>
+      <c r="C754" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>224</v>
+      </c>
+      <c r="B755" t="s">
+        <v>226</v>
+      </c>
+      <c r="C755" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>224</v>
+      </c>
+      <c r="B756" t="s">
+        <v>226</v>
+      </c>
+      <c r="C756" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>170</v>
+      </c>
+      <c r="B757" t="s">
+        <v>172</v>
+      </c>
+      <c r="C757" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>170</v>
+      </c>
+      <c r="B758" t="s">
+        <v>172</v>
+      </c>
+      <c r="C758" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>170</v>
+      </c>
+      <c r="B759" t="s">
+        <v>172</v>
+      </c>
+      <c r="C759" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C760" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C761" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C762" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C763" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C764" t="s">
+        <v>2254</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vazby_znacek.xlsx
+++ b/vazby_znacek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip.vaclavik\Downloads\foto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BF2A35-B358-422B-A6D3-108F7F06A80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73888351-B406-43FE-BF59-AC075CCC7BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEEF875A-C45B-474B-908C-61CEEFA8F98C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="2255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="2256">
   <si>
     <t>name</t>
   </si>
@@ -6801,6 +6801,9 @@
   </si>
   <si>
     <t>L'Oreal</t>
+  </si>
+  <si>
+    <t>L'Oréal Elseve</t>
   </si>
 </sst>
 </file>
@@ -7284,8 +7287,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % – Zvýraznění 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7641,13 +7647,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB66AD-1FF0-4104-BCB9-E546CFC91809}">
-  <dimension ref="A1:C764"/>
+  <dimension ref="A1:C765"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A748" workbookViewId="0">
-      <selection activeCell="A764" sqref="A764"/>
+      <selection activeCell="C767" sqref="C767"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -16053,6 +16062,17 @@
         <v>2254</v>
       </c>
     </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C765" s="1" t="s">
+        <v>2255</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vazby_znacek.xlsx
+++ b/vazby_znacek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip.vaclavik\Downloads\foto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip.vaclavik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73888351-B406-43FE-BF59-AC075CCC7BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D06E9EFD-4AFB-4B10-9452-1CB76B7D52BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEEF875A-C45B-474B-908C-61CEEFA8F98C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="2256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="2259">
   <si>
     <t>name</t>
   </si>
@@ -6804,13 +6804,22 @@
   </si>
   <si>
     <t>L'Oréal Elseve</t>
+  </si>
+  <si>
+    <t>prêt-à-porter</t>
+  </si>
+  <si>
+    <t>PRET A PORTER</t>
+  </si>
+  <si>
+    <t>Pret a Porter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6941,6 +6950,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7647,10 +7662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB66AD-1FF0-4104-BCB9-E546CFC91809}">
-  <dimension ref="A1:C765"/>
+  <dimension ref="A1:C769"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A748" workbookViewId="0">
-      <selection activeCell="C767" sqref="C767"/>
+    <sheetView tabSelected="1" topLeftCell="A747" workbookViewId="0">
+      <selection activeCell="L770" sqref="L770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16073,7 +16088,53 @@
         <v>2255</v>
       </c>
     </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>815</v>
+      </c>
+      <c r="B766" t="s">
+        <v>817</v>
+      </c>
+      <c r="C766" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>815</v>
+      </c>
+      <c r="B767" t="s">
+        <v>817</v>
+      </c>
+      <c r="C767" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>815</v>
+      </c>
+      <c r="B768" t="s">
+        <v>817</v>
+      </c>
+      <c r="C768" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>815</v>
+      </c>
+      <c r="B769" t="s">
+        <v>817</v>
+      </c>
+      <c r="C769" t="s">
+        <v>2256</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/vazby_znacek.xlsx
+++ b/vazby_znacek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip.vaclavik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D06E9EFD-4AFB-4B10-9452-1CB76B7D52BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527C43C8-AF89-4E1D-8280-1D6F62089718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEEF875A-C45B-474B-908C-61CEEFA8F98C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="2259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="2274">
   <si>
     <t>name</t>
   </si>
@@ -6813,6 +6813,51 @@
   </si>
   <si>
     <t>Pret a Porter</t>
+  </si>
+  <si>
+    <t>ID:ZN0369</t>
+  </si>
+  <si>
+    <t>tirtir</t>
+  </si>
+  <si>
+    <t>Tirtir</t>
+  </si>
+  <si>
+    <t>ID:ZN0371</t>
+  </si>
+  <si>
+    <t>skin1004</t>
+  </si>
+  <si>
+    <t>SKIN1004</t>
+  </si>
+  <si>
+    <t>ID:ZN0370</t>
+  </si>
+  <si>
+    <t>round-lab</t>
+  </si>
+  <si>
+    <t>Round Lab</t>
+  </si>
+  <si>
+    <t>ID:ZN0373</t>
+  </si>
+  <si>
+    <t>selfie-project</t>
+  </si>
+  <si>
+    <t>Selfie Project</t>
+  </si>
+  <si>
+    <t>Coty</t>
+  </si>
+  <si>
+    <t>organic-shop</t>
+  </si>
+  <si>
+    <t>ID:ZN0374</t>
   </si>
 </sst>
 </file>
@@ -7662,10 +7707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB66AD-1FF0-4104-BCB9-E546CFC91809}">
-  <dimension ref="A1:C769"/>
+  <dimension ref="A1:C776"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A747" workbookViewId="0">
-      <selection activeCell="L770" sqref="L770"/>
+      <selection activeCell="C777" sqref="C777"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16132,6 +16177,83 @@
         <v>2256</v>
       </c>
     </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B770" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C770" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B771" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C771" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B772" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C772" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B773" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C773" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C774" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B775" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C775" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>340</v>
+      </c>
+      <c r="B776" t="s">
+        <v>342</v>
+      </c>
+      <c r="C776" t="s">
+        <v>341</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/vazby_znacek.xlsx
+++ b/vazby_znacek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip.vaclavik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip.vaclavik\Downloads\SprinxHDExport (1)_soubory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527C43C8-AF89-4E1D-8280-1D6F62089718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C475BDAF-417F-4248-8247-C71FE49754A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEEF875A-C45B-474B-908C-61CEEFA8F98C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEEF875A-C45B-474B-908C-61CEEFA8F98C}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="2274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="2283">
   <si>
     <t>name</t>
   </si>
@@ -6858,6 +6858,33 @@
   </si>
   <si>
     <t>ID:ZN0374</t>
+  </si>
+  <si>
+    <t>EVONA</t>
+  </si>
+  <si>
+    <t>evona</t>
+  </si>
+  <si>
+    <t>ID:ZN0365</t>
+  </si>
+  <si>
+    <t>Anua</t>
+  </si>
+  <si>
+    <t>anua</t>
+  </si>
+  <si>
+    <t>ID:ZN0372</t>
+  </si>
+  <si>
+    <t>Stitch</t>
+  </si>
+  <si>
+    <t>stitch</t>
+  </si>
+  <si>
+    <t>ID:ZN0388</t>
   </si>
 </sst>
 </file>
@@ -7707,10 +7734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB66AD-1FF0-4104-BCB9-E546CFC91809}">
-  <dimension ref="A1:C776"/>
+  <dimension ref="A1:C779"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A747" workbookViewId="0">
-      <selection activeCell="C777" sqref="C777"/>
+      <selection activeCell="A779" sqref="A779"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16254,6 +16281,39 @@
         <v>341</v>
       </c>
     </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B777" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C777" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B778" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C778" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B779" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C779" t="s">
+        <v>2280</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/vazby_znacek.xlsx
+++ b/vazby_znacek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip.vaclavik\Downloads\SprinxHDExport (1)_soubory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip.vaclavik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C475BDAF-417F-4248-8247-C71FE49754A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC78D25-C971-402C-8727-CE9796BB5EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEEF875A-C45B-474B-908C-61CEEFA8F98C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEEF875A-C45B-474B-908C-61CEEFA8F98C}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="2283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="2284">
   <si>
     <t>name</t>
   </si>
@@ -6885,6 +6885,9 @@
   </si>
   <si>
     <t>ID:ZN0388</t>
+  </si>
+  <si>
+    <t>Q Clean</t>
   </si>
 </sst>
 </file>
@@ -7734,10 +7737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB66AD-1FF0-4104-BCB9-E546CFC91809}">
-  <dimension ref="A1:C779"/>
+  <dimension ref="A1:C782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A747" workbookViewId="0">
-      <selection activeCell="A779" sqref="A779"/>
+    <sheetView tabSelected="1" topLeftCell="A760" workbookViewId="0">
+      <selection activeCell="C783" sqref="C783"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16314,6 +16317,39 @@
         <v>2280</v>
       </c>
     </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>346</v>
+      </c>
+      <c r="B780" t="s">
+        <v>348</v>
+      </c>
+      <c r="C780" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>116</v>
+      </c>
+      <c r="B781" t="s">
+        <v>118</v>
+      </c>
+      <c r="C781" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>224</v>
+      </c>
+      <c r="B782" t="s">
+        <v>226</v>
+      </c>
+      <c r="C782" t="s">
+        <v>2246</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/vazby_znacek.xlsx
+++ b/vazby_znacek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip.vaclavik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip.vaclavik\Downloads\dxd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC78D25-C971-402C-8727-CE9796BB5EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EEE648F-C2CF-43F8-86BD-6D744A18C8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEEF875A-C45B-474B-908C-61CEEFA8F98C}"/>
+    <workbookView xWindow="5820" yWindow="1635" windowWidth="21600" windowHeight="11295" xr2:uid="{DEEF875A-C45B-474B-908C-61CEEFA8F98C}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="2284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="2399">
   <si>
     <t>name</t>
   </si>
@@ -6758,72 +6758,12 @@
     <t>code</t>
   </si>
   <si>
-    <t>Q  power</t>
-  </si>
-  <si>
-    <t>Q  Power</t>
-  </si>
-  <si>
-    <t>Gliss Kur</t>
-  </si>
-  <si>
-    <t>Gliss kur</t>
-  </si>
-  <si>
-    <t>Q Soft</t>
-  </si>
-  <si>
-    <t>Q soft</t>
-  </si>
-  <si>
-    <t>Q Home</t>
-  </si>
-  <si>
-    <t>Q home</t>
-  </si>
-  <si>
-    <t>Sunárek</t>
-  </si>
-  <si>
-    <t>sunárek</t>
-  </si>
-  <si>
-    <t>IDC</t>
-  </si>
-  <si>
-    <t>idc</t>
-  </si>
-  <si>
-    <t>IDC institute</t>
-  </si>
-  <si>
-    <t>idc institute</t>
-  </si>
-  <si>
-    <t>L'Oreal</t>
-  </si>
-  <si>
-    <t>L'Oréal Elseve</t>
-  </si>
-  <si>
-    <t>prêt-à-porter</t>
-  </si>
-  <si>
-    <t>PRET A PORTER</t>
-  </si>
-  <si>
-    <t>Pret a Porter</t>
-  </si>
-  <si>
     <t>ID:ZN0369</t>
   </si>
   <si>
     <t>tirtir</t>
   </si>
   <si>
-    <t>Tirtir</t>
-  </si>
-  <si>
     <t>ID:ZN0371</t>
   </si>
   <si>
@@ -6887,7 +6827,412 @@
     <t>ID:ZN0388</t>
   </si>
   <si>
-    <t>Q Clean</t>
+    <t>ID:1919</t>
+  </si>
+  <si>
+    <t>dilmah</t>
+  </si>
+  <si>
+    <t>Dilmah</t>
+  </si>
+  <si>
+    <t>ID:123728</t>
+  </si>
+  <si>
+    <t>energy-coffee</t>
+  </si>
+  <si>
+    <t>Energy Coffee</t>
+  </si>
+  <si>
+    <t>ID:ZN0367</t>
+  </si>
+  <si>
+    <t>pd-party</t>
+  </si>
+  <si>
+    <t>PD Party</t>
+  </si>
+  <si>
+    <t>ID:ZN0368</t>
+  </si>
+  <si>
+    <t>tary</t>
+  </si>
+  <si>
+    <t>Tary</t>
+  </si>
+  <si>
+    <t>TirTir</t>
+  </si>
+  <si>
+    <t>ID:ZN0364</t>
+  </si>
+  <si>
+    <t>hi-hybrid</t>
+  </si>
+  <si>
+    <t>Hi Hybrid</t>
+  </si>
+  <si>
+    <t>ID:13576</t>
+  </si>
+  <si>
+    <t>birell</t>
+  </si>
+  <si>
+    <t>Birell</t>
+  </si>
+  <si>
+    <t>ID:15008</t>
+  </si>
+  <si>
+    <t>frisco</t>
+  </si>
+  <si>
+    <t>Frisco</t>
+  </si>
+  <si>
+    <t>ID:12074</t>
+  </si>
+  <si>
+    <t>pe-po-1</t>
+  </si>
+  <si>
+    <t>PE-PO</t>
+  </si>
+  <si>
+    <t>ID:ZN0136</t>
+  </si>
+  <si>
+    <t>royax</t>
+  </si>
+  <si>
+    <t>Royax</t>
+  </si>
+  <si>
+    <t>ID:ZN0376</t>
+  </si>
+  <si>
+    <t>d-aroma</t>
+  </si>
+  <si>
+    <t>D-Aroma</t>
+  </si>
+  <si>
+    <t>ID:ZN0375</t>
+  </si>
+  <si>
+    <t>bright-starts</t>
+  </si>
+  <si>
+    <t>Bright Starts</t>
+  </si>
+  <si>
+    <t>ID:ZN0379</t>
+  </si>
+  <si>
+    <t>lancome</t>
+  </si>
+  <si>
+    <t>Lancôme</t>
+  </si>
+  <si>
+    <t>ID:ZN0378</t>
+  </si>
+  <si>
+    <t>nina-ricci</t>
+  </si>
+  <si>
+    <t>Nina Ricci</t>
+  </si>
+  <si>
+    <t>ID:ZN0380</t>
+  </si>
+  <si>
+    <t>organic-shop-1</t>
+  </si>
+  <si>
+    <t>Organic Shop</t>
+  </si>
+  <si>
+    <t>ID:ZN0377</t>
+  </si>
+  <si>
+    <t>alfa-vita</t>
+  </si>
+  <si>
+    <t>Alfa Vita</t>
+  </si>
+  <si>
+    <t>ID:ZN0062</t>
+  </si>
+  <si>
+    <t>prevital</t>
+  </si>
+  <si>
+    <t>PreVital</t>
+  </si>
+  <si>
+    <t>ID:ZN0384</t>
+  </si>
+  <si>
+    <t>mister-fresh</t>
+  </si>
+  <si>
+    <t>Mister Fresh</t>
+  </si>
+  <si>
+    <t>ID:ZN0385</t>
+  </si>
+  <si>
+    <t>alteco</t>
+  </si>
+  <si>
+    <t>Alteco</t>
+  </si>
+  <si>
+    <t>ID:ZN0382</t>
+  </si>
+  <si>
+    <t>presovska-relaxa</t>
+  </si>
+  <si>
+    <t>Prešovská Relaxa</t>
+  </si>
+  <si>
+    <t>ID:ZN0383</t>
+  </si>
+  <si>
+    <t>alba-efekt</t>
+  </si>
+  <si>
+    <t>Alba Efekt</t>
+  </si>
+  <si>
+    <t>ID:14900</t>
+  </si>
+  <si>
+    <t>druchema</t>
+  </si>
+  <si>
+    <t>Druchema</t>
+  </si>
+  <si>
+    <t>ID:ZN0381</t>
+  </si>
+  <si>
+    <t>ak-way</t>
+  </si>
+  <si>
+    <t>Ak Way</t>
+  </si>
+  <si>
+    <t>ID:ZN0386</t>
+  </si>
+  <si>
+    <t>donna-hair</t>
+  </si>
+  <si>
+    <t>Donna Hair</t>
+  </si>
+  <si>
+    <t>ID:ZN0387</t>
+  </si>
+  <si>
+    <t>lovi</t>
+  </si>
+  <si>
+    <t>Lovi</t>
+  </si>
+  <si>
+    <t>ID:12282</t>
+  </si>
+  <si>
+    <t>alibona</t>
+  </si>
+  <si>
+    <t>Alibona</t>
+  </si>
+  <si>
+    <t>ID:14147</t>
+  </si>
+  <si>
+    <t>tento</t>
+  </si>
+  <si>
+    <t>Tento</t>
+  </si>
+  <si>
+    <t>ID:ZN0389</t>
+  </si>
+  <si>
+    <t>gabby-s-dollhouse</t>
+  </si>
+  <si>
+    <t>Gabby's Dollhouse</t>
+  </si>
+  <si>
+    <t>ID:ZN0390</t>
+  </si>
+  <si>
+    <t>barbie</t>
+  </si>
+  <si>
+    <t>Barbie</t>
+  </si>
+  <si>
+    <t>ID:ZN0391</t>
+  </si>
+  <si>
+    <t>unicorn</t>
+  </si>
+  <si>
+    <t>Unicorn</t>
+  </si>
+  <si>
+    <t>ID:40776</t>
+  </si>
+  <si>
+    <t>freedent</t>
+  </si>
+  <si>
+    <t>Freedent</t>
+  </si>
+  <si>
+    <t>ID:ZN0393</t>
+  </si>
+  <si>
+    <t>quret</t>
+  </si>
+  <si>
+    <t>Quret</t>
+  </si>
+  <si>
+    <t>ID:ZN0395</t>
+  </si>
+  <si>
+    <t>estee-lauder</t>
+  </si>
+  <si>
+    <t>Estée Lauder</t>
+  </si>
+  <si>
+    <t>ID:14290</t>
+  </si>
+  <si>
+    <t>orbit</t>
+  </si>
+  <si>
+    <t>Orbit</t>
+  </si>
+  <si>
+    <t>ID:ZN0392</t>
+  </si>
+  <si>
+    <t>koco</t>
+  </si>
+  <si>
+    <t>KOCO</t>
+  </si>
+  <si>
+    <t>ID:ZN0397</t>
+  </si>
+  <si>
+    <t>green-pharmacy</t>
+  </si>
+  <si>
+    <t>Green Pharmacy</t>
+  </si>
+  <si>
+    <t>ID:ZN0398</t>
+  </si>
+  <si>
+    <t>the-doctor-health-care</t>
+  </si>
+  <si>
+    <t>The Doctor Health &amp; Care</t>
+  </si>
+  <si>
+    <t>ID:ZN0396</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>ID:ZN0399</t>
+  </si>
+  <si>
+    <t>tropicks</t>
+  </si>
+  <si>
+    <t>Tropicks</t>
+  </si>
+  <si>
+    <t>ID:ZN0400</t>
+  </si>
+  <si>
+    <t>msi</t>
+  </si>
+  <si>
+    <t>MSI</t>
+  </si>
+  <si>
+    <t>ID:ZN0401</t>
+  </si>
+  <si>
+    <t>zozole</t>
+  </si>
+  <si>
+    <t>Zozole</t>
+  </si>
+  <si>
+    <t>ID:ZN0402</t>
+  </si>
+  <si>
+    <t>zlaty-poklad</t>
+  </si>
+  <si>
+    <t>Zlatý poklad</t>
+  </si>
+  <si>
+    <t>ID:ZN0403</t>
+  </si>
+  <si>
+    <t>ags</t>
+  </si>
+  <si>
+    <t>Tulipan Negro</t>
+  </si>
+  <si>
+    <t>ID:ZN0404</t>
+  </si>
+  <si>
+    <t>cheeees</t>
+  </si>
+  <si>
+    <t>Cheeees</t>
+  </si>
+  <si>
+    <t>ID:ZN0405</t>
+  </si>
+  <si>
+    <t>haruharu-wonder</t>
+  </si>
+  <si>
+    <t>Haruharu Wonder</t>
+  </si>
+  <si>
+    <t>ID:ZN0407</t>
+  </si>
+  <si>
+    <t>beba</t>
+  </si>
+  <si>
+    <t>BEBA</t>
   </si>
 </sst>
 </file>
@@ -7377,11 +7722,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % – Zvýraznění 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7737,10 +8079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB66AD-1FF0-4104-BCB9-E546CFC91809}">
-  <dimension ref="A1:C782"/>
+  <dimension ref="A1:C801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A760" workbookViewId="0">
-      <selection activeCell="C783" sqref="C783"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15978,142 +16320,142 @@
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>206</v>
+        <v>2263</v>
       </c>
       <c r="B749" t="s">
-        <v>208</v>
+        <v>2264</v>
       </c>
       <c r="C749" t="s">
-        <v>2240</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>206</v>
+        <v>2266</v>
       </c>
       <c r="B750" t="s">
-        <v>208</v>
+        <v>2267</v>
       </c>
       <c r="C750" t="s">
-        <v>2241</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>498</v>
+        <v>2269</v>
       </c>
       <c r="B751" t="s">
-        <v>500</v>
+        <v>2270</v>
       </c>
       <c r="C751" t="s">
-        <v>2242</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>498</v>
+        <v>2272</v>
       </c>
       <c r="B752" t="s">
-        <v>500</v>
+        <v>2273</v>
       </c>
       <c r="C752" t="s">
-        <v>2243</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>116</v>
+        <v>2240</v>
       </c>
       <c r="B753" t="s">
-        <v>118</v>
+        <v>2241</v>
       </c>
       <c r="C753" t="s">
-        <v>2244</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>116</v>
+        <v>2245</v>
       </c>
       <c r="B754" t="s">
-        <v>118</v>
+        <v>2246</v>
       </c>
       <c r="C754" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>224</v>
+        <v>2259</v>
       </c>
       <c r="B755" t="s">
-        <v>226</v>
+        <v>2258</v>
       </c>
       <c r="C755" t="s">
-        <v>2246</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>224</v>
+        <v>2242</v>
       </c>
       <c r="B756" t="s">
-        <v>226</v>
+        <v>2243</v>
       </c>
       <c r="C756" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>170</v>
+        <v>2276</v>
       </c>
       <c r="B757" t="s">
-        <v>172</v>
+        <v>2277</v>
       </c>
       <c r="C757" t="s">
-        <v>2248</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>170</v>
+        <v>2248</v>
       </c>
       <c r="B758" t="s">
-        <v>172</v>
+        <v>2249</v>
       </c>
       <c r="C758" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>170</v>
+        <v>2279</v>
       </c>
       <c r="B759" t="s">
-        <v>172</v>
+        <v>2280</v>
       </c>
       <c r="C759" t="s">
-        <v>172</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>1870</v>
+        <v>2282</v>
       </c>
       <c r="B760" t="s">
-        <v>1872</v>
+        <v>2283</v>
       </c>
       <c r="C760" t="s">
-        <v>2250</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>1870</v>
+        <v>2253</v>
       </c>
       <c r="B761" t="s">
-        <v>1872</v>
+        <v>2252</v>
       </c>
       <c r="C761" t="s">
         <v>2251</v>
@@ -16121,233 +16463,442 @@
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>1870</v>
+        <v>2285</v>
       </c>
       <c r="B762" t="s">
-        <v>1872</v>
+        <v>2286</v>
       </c>
       <c r="C762" t="s">
-        <v>2252</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>1870</v>
+        <v>2288</v>
       </c>
       <c r="B763" t="s">
-        <v>1872</v>
+        <v>2289</v>
       </c>
       <c r="C763" t="s">
-        <v>2253</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>1855</v>
+        <v>2291</v>
       </c>
       <c r="B764" t="s">
-        <v>1857</v>
+        <v>2292</v>
       </c>
       <c r="C764" t="s">
-        <v>2254</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>1855</v>
+        <v>2294</v>
       </c>
       <c r="B765" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C765" s="1" t="s">
-        <v>2255</v>
+        <v>2295</v>
+      </c>
+      <c r="C765" t="s">
+        <v>2296</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>815</v>
+        <v>2297</v>
       </c>
       <c r="B766" t="s">
-        <v>817</v>
+        <v>2298</v>
       </c>
       <c r="C766" t="s">
-        <v>2257</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>815</v>
+        <v>2300</v>
       </c>
       <c r="B767" t="s">
-        <v>817</v>
+        <v>2301</v>
       </c>
       <c r="C767" t="s">
-        <v>2258</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>815</v>
+        <v>2303</v>
       </c>
       <c r="B768" t="s">
-        <v>817</v>
+        <v>2304</v>
       </c>
       <c r="C768" t="s">
-        <v>816</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>815</v>
+        <v>2306</v>
       </c>
       <c r="B769" t="s">
-        <v>817</v>
+        <v>2307</v>
       </c>
       <c r="C769" t="s">
-        <v>2256</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>2259</v>
+        <v>2309</v>
       </c>
       <c r="B770" t="s">
-        <v>2260</v>
+        <v>2310</v>
       </c>
       <c r="C770" t="s">
-        <v>2261</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>2262</v>
+        <v>2312</v>
       </c>
       <c r="B771" t="s">
-        <v>2263</v>
+        <v>2313</v>
       </c>
       <c r="C771" t="s">
-        <v>2264</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>2265</v>
+        <v>2315</v>
       </c>
       <c r="B772" t="s">
-        <v>2266</v>
+        <v>2316</v>
       </c>
       <c r="C772" t="s">
-        <v>2267</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>2268</v>
+        <v>2318</v>
       </c>
       <c r="B773" t="s">
-        <v>2269</v>
+        <v>2319</v>
       </c>
       <c r="C773" t="s">
-        <v>2270</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>1025</v>
+        <v>2321</v>
       </c>
       <c r="B774" t="s">
-        <v>1027</v>
+        <v>2322</v>
       </c>
       <c r="C774" t="s">
-        <v>1026</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>2273</v>
+        <v>2324</v>
       </c>
       <c r="B775" t="s">
-        <v>2272</v>
+        <v>2325</v>
       </c>
       <c r="C775" t="s">
-        <v>2271</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>340</v>
+        <v>2327</v>
       </c>
       <c r="B776" t="s">
-        <v>342</v>
+        <v>2328</v>
       </c>
       <c r="C776" t="s">
-        <v>341</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>2276</v>
+        <v>2330</v>
       </c>
       <c r="B777" t="s">
-        <v>2275</v>
+        <v>2331</v>
       </c>
       <c r="C777" t="s">
-        <v>2274</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>2279</v>
+        <v>2333</v>
       </c>
       <c r="B778" t="s">
-        <v>2278</v>
+        <v>2334</v>
       </c>
       <c r="C778" t="s">
-        <v>2277</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>2282</v>
+        <v>2336</v>
       </c>
       <c r="B779" t="s">
-        <v>2281</v>
+        <v>2337</v>
       </c>
       <c r="C779" t="s">
-        <v>2280</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>346</v>
+        <v>2339</v>
       </c>
       <c r="B780" t="s">
-        <v>348</v>
+        <v>2340</v>
       </c>
       <c r="C780" t="s">
-        <v>2283</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>116</v>
+        <v>2256</v>
       </c>
       <c r="B781" t="s">
-        <v>118</v>
+        <v>2255</v>
       </c>
       <c r="C781" t="s">
-        <v>2244</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>224</v>
+        <v>2262</v>
       </c>
       <c r="B782" t="s">
-        <v>226</v>
+        <v>2261</v>
       </c>
       <c r="C782" t="s">
-        <v>2246</v>
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B783" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C783" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B784" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C784" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B785" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C785" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B786" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C786" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B787" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C787" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B788" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C788" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B789" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C789" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B790" t="s">
+        <v>2364</v>
+      </c>
+      <c r="C790" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B791" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C791" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B792" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C792" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B793" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C793" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B794" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C794" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B795" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C795" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B796" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C796" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B797" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C797" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B798" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C798" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B799" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C799" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B800" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C800" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B801" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C801" t="s">
+        <v>2398</v>
       </c>
     </row>
   </sheetData>

--- a/vazby_znacek.xlsx
+++ b/vazby_znacek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip.vaclavik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petr.hirsal\Desktop\dlazdice-git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A12B6742-44D4-463F-97F8-5FABECEE276F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76318F45-3EFC-432C-9604-956093ADA867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEEF875A-C45B-474B-908C-61CEEFA8F98C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEEF875A-C45B-474B-908C-61CEEFA8F98C}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="2411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="2456">
   <si>
     <t>name</t>
   </si>
@@ -7269,6 +7269,141 @@
   </si>
   <si>
     <t>Batole</t>
+  </si>
+  <si>
+    <t>ID:ZN0415</t>
+  </si>
+  <si>
+    <t>valentis</t>
+  </si>
+  <si>
+    <t>Valentis</t>
+  </si>
+  <si>
+    <t>ID:ZN0414</t>
+  </si>
+  <si>
+    <t>la-vida-caribena</t>
+  </si>
+  <si>
+    <t>La Vida Caribena</t>
+  </si>
+  <si>
+    <t>ID:ZN0411</t>
+  </si>
+  <si>
+    <t>renu</t>
+  </si>
+  <si>
+    <t>ReNu</t>
+  </si>
+  <si>
+    <t>ID:ZN0412</t>
+  </si>
+  <si>
+    <t>ecover</t>
+  </si>
+  <si>
+    <t>Ecover</t>
+  </si>
+  <si>
+    <t>ID:13928</t>
+  </si>
+  <si>
+    <t>relax</t>
+  </si>
+  <si>
+    <t>Relax</t>
+  </si>
+  <si>
+    <t>ID:ZN0410</t>
+  </si>
+  <si>
+    <t>lip-smacker</t>
+  </si>
+  <si>
+    <t>Lip Smacker</t>
+  </si>
+  <si>
+    <t>ID:ZN0408</t>
+  </si>
+  <si>
+    <t>bloom-robbins</t>
+  </si>
+  <si>
+    <t>Bloom Robbins</t>
+  </si>
+  <si>
+    <t>ID:ZN0413</t>
+  </si>
+  <si>
+    <t>dr-althea</t>
+  </si>
+  <si>
+    <t>Dr. Althea</t>
+  </si>
+  <si>
+    <t>ID:ZN0409</t>
+  </si>
+  <si>
+    <t>jovo</t>
+  </si>
+  <si>
+    <t>JöVö</t>
+  </si>
+  <si>
+    <t>ID:43585</t>
+  </si>
+  <si>
+    <t>satin-care</t>
+  </si>
+  <si>
+    <t>Satin Care</t>
+  </si>
+  <si>
+    <t>ID:ZN0416</t>
+  </si>
+  <si>
+    <t>gallus</t>
+  </si>
+  <si>
+    <t>Gallus</t>
+  </si>
+  <si>
+    <t>ID:ZN0417</t>
+  </si>
+  <si>
+    <t>fackelmann</t>
+  </si>
+  <si>
+    <t>Fackelmann</t>
+  </si>
+  <si>
+    <t>ID:ZN0418</t>
+  </si>
+  <si>
+    <t>fammilky</t>
+  </si>
+  <si>
+    <t>Fammilky</t>
+  </si>
+  <si>
+    <t>ID:ZN0419</t>
+  </si>
+  <si>
+    <t>flawless</t>
+  </si>
+  <si>
+    <t>Flawless</t>
+  </si>
+  <si>
+    <t>ID:ZN0420</t>
+  </si>
+  <si>
+    <t>q-svice-ozona</t>
+  </si>
+  <si>
+    <t>Q svíce Ozóna</t>
   </si>
 </sst>
 </file>
@@ -8115,15 +8250,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB66AD-1FF0-4104-BCB9-E546CFC91809}">
-  <dimension ref="A1:C812"/>
+  <dimension ref="A1:C827"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A658" workbookViewId="0">
-      <selection activeCell="C678" sqref="C678"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -17056,6 +17191,171 @@
       </c>
       <c r="C812" t="s">
         <v>2406</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B813" t="s">
+        <v>2412</v>
+      </c>
+      <c r="C813" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B814" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C814" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B815" t="s">
+        <v>2418</v>
+      </c>
+      <c r="C815" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B816" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C816" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B817" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C817" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B818" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C818" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B819" t="s">
+        <v>2430</v>
+      </c>
+      <c r="C819" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B820" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C820" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B821" t="s">
+        <v>2436</v>
+      </c>
+      <c r="C821" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B822" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C822" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B823" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C823" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B824" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C824" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B825" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C825" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B826" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C826" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B827" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C827" t="s">
+        <v>2455</v>
       </c>
     </row>
   </sheetData>

--- a/vazby_znacek.xlsx
+++ b/vazby_znacek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petr.hirsal\Desktop\dlazdice-git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petr.hirsal\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76318F45-3EFC-432C-9604-956093ADA867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99182AA0-ED39-437D-90E5-1C92E263F348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEEF875A-C45B-474B-908C-61CEEFA8F98C}"/>
+    <workbookView xWindow="-28605" yWindow="2430" windowWidth="28800" windowHeight="11295" xr2:uid="{DEEF875A-C45B-474B-908C-61CEEFA8F98C}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="2456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="2527">
   <si>
     <t>name</t>
   </si>
@@ -7404,6 +7404,219 @@
   </si>
   <si>
     <t>Q svíce Ozóna</t>
+  </si>
+  <si>
+    <t>ID:ZN0422</t>
+  </si>
+  <si>
+    <t>herbalmed</t>
+  </si>
+  <si>
+    <t>HerbalMed</t>
+  </si>
+  <si>
+    <t>ID:ZN0423</t>
+  </si>
+  <si>
+    <t>waterwipes</t>
+  </si>
+  <si>
+    <t>WaterWipes</t>
+  </si>
+  <si>
+    <t>ID:ZN0425</t>
+  </si>
+  <si>
+    <t>brodisan</t>
+  </si>
+  <si>
+    <t>BRODISAN</t>
+  </si>
+  <si>
+    <t>ID:ZN0426</t>
+  </si>
+  <si>
+    <t>easy-life</t>
+  </si>
+  <si>
+    <t>Easy Life</t>
+  </si>
+  <si>
+    <t>ID:ZN0428</t>
+  </si>
+  <si>
+    <t>konopny-tata</t>
+  </si>
+  <si>
+    <t>Konopný Táta</t>
+  </si>
+  <si>
+    <t>ID:ZN0272</t>
+  </si>
+  <si>
+    <t>wet-n-wild-1</t>
+  </si>
+  <si>
+    <t>ID:ZN0429</t>
+  </si>
+  <si>
+    <t>vt-cosmetics</t>
+  </si>
+  <si>
+    <t>VT Cosmetics</t>
+  </si>
+  <si>
+    <t>ID:ZN0427</t>
+  </si>
+  <si>
+    <t>movit</t>
+  </si>
+  <si>
+    <t>MOVit</t>
+  </si>
+  <si>
+    <t>ID:ZN0432</t>
+  </si>
+  <si>
+    <t>nizoral</t>
+  </si>
+  <si>
+    <t>Nizoral</t>
+  </si>
+  <si>
+    <t>ID:ZN0431</t>
+  </si>
+  <si>
+    <t>capsicolle</t>
+  </si>
+  <si>
+    <t>Capsicolle</t>
+  </si>
+  <si>
+    <t>ID:ZN0114</t>
+  </si>
+  <si>
+    <t>schneider</t>
+  </si>
+  <si>
+    <t>Schneider</t>
+  </si>
+  <si>
+    <t>ID:ZN0438</t>
+  </si>
+  <si>
+    <t>drutep</t>
+  </si>
+  <si>
+    <t>Drutep</t>
+  </si>
+  <si>
+    <t>ID:ZN0441</t>
+  </si>
+  <si>
+    <t>pharmaswiss</t>
+  </si>
+  <si>
+    <t>PharmaSwiss</t>
+  </si>
+  <si>
+    <t>ID:ZN0440</t>
+  </si>
+  <si>
+    <t>hygienium</t>
+  </si>
+  <si>
+    <t>Hygienium</t>
+  </si>
+  <si>
+    <t>ID:ZN0437</t>
+  </si>
+  <si>
+    <t>alice</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>ID:31176</t>
+  </si>
+  <si>
+    <t>pret-a-porter-1</t>
+  </si>
+  <si>
+    <t>Pret a Porter</t>
+  </si>
+  <si>
+    <t>ID:ZN0439</t>
+  </si>
+  <si>
+    <t>sorbos-1</t>
+  </si>
+  <si>
+    <t>Sorbos</t>
+  </si>
+  <si>
+    <t>ID:ZN0421</t>
+  </si>
+  <si>
+    <t>ikt</t>
+  </si>
+  <si>
+    <t>IKT</t>
+  </si>
+  <si>
+    <t>ID:ZN0442</t>
+  </si>
+  <si>
+    <t>medicube</t>
+  </si>
+  <si>
+    <t>Medicube</t>
+  </si>
+  <si>
+    <t>ID:ZN0443</t>
+  </si>
+  <si>
+    <t>mr-muscle</t>
+  </si>
+  <si>
+    <t>Mr. Muscle</t>
+  </si>
+  <si>
+    <t>ID:12603</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>Hell</t>
+  </si>
+  <si>
+    <t>ID:ZN0444</t>
+  </si>
+  <si>
+    <t>la-rive</t>
+  </si>
+  <si>
+    <t>La Rive</t>
+  </si>
+  <si>
+    <t>ID:12208</t>
+  </si>
+  <si>
+    <t>bella-baby</t>
+  </si>
+  <si>
+    <t>Bella Baby</t>
+  </si>
+  <si>
+    <t>ID:ZN0445</t>
+  </si>
+  <si>
+    <t>panastat</t>
+  </si>
+  <si>
+    <t>Panastat</t>
   </si>
 </sst>
 </file>
@@ -8250,7 +8463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB66AD-1FF0-4104-BCB9-E546CFC91809}">
-  <dimension ref="A1:C827"/>
+  <dimension ref="A1:C851"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17358,6 +17571,270 @@
         <v>2455</v>
       </c>
     </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B828" t="s">
+        <v>2457</v>
+      </c>
+      <c r="C828" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B829" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C829" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B830" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C830" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B831" t="s">
+        <v>2466</v>
+      </c>
+      <c r="C831" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B832" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C832" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B833" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C833" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B834" t="s">
+        <v>2474</v>
+      </c>
+      <c r="C834" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B835" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C835" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B836" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C836" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B837" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C837" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B838" t="s">
+        <v>2486</v>
+      </c>
+      <c r="C838" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B839" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C839" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B840" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C840" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B841" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C841" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B842" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C842" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B843" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C843" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B844" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C844" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B845" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C845" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B846" t="s">
+        <v>2510</v>
+      </c>
+      <c r="C846" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B847" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C847" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B848" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C848" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B849" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C849" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B850" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C850" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B851" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C851" t="s">
+        <v>2526</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
